--- a/data/trans_orig/P21D2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>118883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103947</v>
+        <v>101621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133408</v>
+        <v>133309</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6019568989620029</v>
+        <v>0.601956898962003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5263269572692554</v>
+        <v>0.5145519281571977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6755018975219443</v>
+        <v>0.6749978953117999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>207</v>
@@ -762,19 +762,19 @@
         <v>145493</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131583</v>
+        <v>130615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160632</v>
+        <v>160093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5407103500850967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4890167087519542</v>
+        <v>0.4854186610218454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5969753475711217</v>
+        <v>0.5949703756145345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>322</v>
@@ -783,19 +783,19 @@
         <v>264376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>245161</v>
+        <v>243324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283899</v>
+        <v>284876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5666354135115621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5254505896350812</v>
+        <v>0.5215140365420959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6084780541374823</v>
+        <v>0.6105728361821069</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>61258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47045</v>
+        <v>47942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76561</v>
+        <v>78253</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3101772697921997</v>
+        <v>0.3101772697921998</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2382103049069262</v>
+        <v>0.2427497230751711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3876604559112977</v>
+        <v>0.3962295747828331</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -833,19 +833,19 @@
         <v>99768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85276</v>
+        <v>85753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113394</v>
+        <v>114128</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3707799595557825</v>
+        <v>0.3707799595557826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3169193375795036</v>
+        <v>0.3186940462181634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4214194204752371</v>
+        <v>0.4241461774935924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>194</v>
@@ -854,19 +854,19 @@
         <v>161027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142545</v>
+        <v>141042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>180932</v>
+        <v>181774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3451274353769433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.30551456418397</v>
+        <v>0.3022945197504237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3877904502922719</v>
+        <v>0.3895950956076853</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3772</v>
+        <v>4416</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003800478288504715</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01910041540751064</v>
+        <v>0.02236082104326895</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>9033</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4786</v>
+        <v>4203</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20056</v>
+        <v>18535</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03357128255619615</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01778729566498714</v>
+        <v>0.01562125287154514</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07453550357242646</v>
+        <v>0.06888185521539097</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -925,19 +925,19 @@
         <v>9784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4807</v>
+        <v>5221</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20343</v>
+        <v>21264</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02096959310512231</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0103038372416621</v>
+        <v>0.01119057582107066</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04360204498032722</v>
+        <v>0.04557418090392258</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>16602</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10243</v>
+        <v>9720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26037</v>
+        <v>26421</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08406535295729262</v>
+        <v>0.08406535295729264</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05186688554124232</v>
+        <v>0.04921813015416399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1318358906133199</v>
+        <v>0.1337793127988482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -975,19 +975,19 @@
         <v>14783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9241</v>
+        <v>9266</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23573</v>
+        <v>23655</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05493840780292459</v>
+        <v>0.0549384078029246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03434160593877195</v>
+        <v>0.03443533006560744</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08760861904281088</v>
+        <v>0.08791169260442401</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -996,19 +996,19 @@
         <v>31385</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22528</v>
+        <v>21895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43592</v>
+        <v>43649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06726755800637217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0482850594303923</v>
+        <v>0.04692784934806915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09343093565594639</v>
+        <v>0.09355221676925347</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>209561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>185169</v>
+        <v>183256</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>231380</v>
+        <v>232435</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5290356426121134</v>
+        <v>0.5290356426121136</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4674585228242013</v>
+        <v>0.4626304818295262</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5841193140152857</v>
+        <v>0.5867812688241658</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>322</v>
@@ -1121,19 +1121,19 @@
         <v>218601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>200915</v>
+        <v>199039</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>237917</v>
+        <v>238518</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4560387662859844</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4191438103060826</v>
+        <v>0.4152304433250535</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4963360739201449</v>
+        <v>0.4975883947848841</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>525</v>
@@ -1142,19 +1142,19 @@
         <v>428161</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>398921</v>
+        <v>400938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>458030</v>
+        <v>460205</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4890673543338731</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4556679812555428</v>
+        <v>0.4579717271941033</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.523185179945683</v>
+        <v>0.5256692746931561</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>164142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142613</v>
+        <v>143440</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188298</v>
+        <v>190677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4143759565340405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3600271439861646</v>
+        <v>0.36211475319925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4753584667809018</v>
+        <v>0.4813642583654995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>338</v>
@@ -1192,19 +1192,19 @@
         <v>239189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>219332</v>
+        <v>221149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256788</v>
+        <v>258729</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4989886069288279</v>
+        <v>0.498988606928828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4575649417085575</v>
+        <v>0.4613555593087102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5357035538234334</v>
+        <v>0.539752416672035</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>484</v>
@@ -1213,19 +1213,19 @@
         <v>403330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>372579</v>
+        <v>371761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>432965</v>
+        <v>428474</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4607042786920438</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4255782877541037</v>
+        <v>0.4246435185028434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4945539988160215</v>
+        <v>0.4894240218510051</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2951</v>
+        <v>2690</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25111</v>
+        <v>23139</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02488834060469104</v>
+        <v>0.02488834060469105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007449665031822024</v>
+        <v>0.006790955766184427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06339353803497057</v>
+        <v>0.05841543442804784</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>4106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1746</v>
+        <v>1830</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8187</v>
+        <v>8304</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.008565227939936724</v>
+        <v>0.008565227939936722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003643129590877273</v>
+        <v>0.003817716077256695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01707893898831505</v>
+        <v>0.01732391949280176</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1284,19 +1284,19 @@
         <v>13964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6634</v>
+        <v>6927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27551</v>
+        <v>29216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01595087772383665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007577563942202716</v>
+        <v>0.0079121538536871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03147061167635177</v>
+        <v>0.03337200541927057</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>12557</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6427</v>
+        <v>6462</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22352</v>
+        <v>23388</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03170006024915495</v>
+        <v>0.03170006024915496</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01622415931129956</v>
+        <v>0.01631313686288743</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05642887642919178</v>
+        <v>0.05904413355471397</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1334,19 +1334,19 @@
         <v>17452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10686</v>
+        <v>10684</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26700</v>
+        <v>27945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03640739884525093</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02229217042218238</v>
+        <v>0.02228853437816735</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05569983621045465</v>
+        <v>0.05829726267723642</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -1355,19 +1355,19 @@
         <v>30009</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20853</v>
+        <v>20758</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43010</v>
+        <v>42629</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0342774892502464</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02381904044139173</v>
+        <v>0.02371072495532077</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04912838361742485</v>
+        <v>0.04869337365013362</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>173530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151196</v>
+        <v>153675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195870</v>
+        <v>196114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4253196009806428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3705778326213581</v>
+        <v>0.3766545463033253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.480073710784076</v>
+        <v>0.4806710940990946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>211</v>
@@ -1480,19 +1480,19 @@
         <v>145794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128764</v>
+        <v>129116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>163408</v>
+        <v>164218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3351563375173064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2960066922240933</v>
+        <v>0.2968178755371737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.375647956861022</v>
+        <v>0.3775103790209267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>388</v>
@@ -1501,19 +1501,19 @@
         <v>319324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290552</v>
+        <v>292259</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>347973</v>
+        <v>348950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3787939670169576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3446631896174945</v>
+        <v>0.3466881035382724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4127780592634032</v>
+        <v>0.4139372318518645</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>227780</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>205161</v>
+        <v>205087</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>249686</v>
+        <v>248076</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5582840858224921</v>
+        <v>0.5582840858224922</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5028466332730274</v>
+        <v>0.5026635036530975</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6119760159532971</v>
+        <v>0.6080305362794252</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>390</v>
@@ -1551,19 +1551,19 @@
         <v>279571</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>261877</v>
+        <v>259604</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>297031</v>
+        <v>297130</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6426893440854956</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6020128615114605</v>
+        <v>0.596786928994013</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.682827084239236</v>
+        <v>0.6830548320685836</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>590</v>
@@ -1572,19 +1572,19 @@
         <v>507351</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>478816</v>
+        <v>477984</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>534662</v>
+        <v>535658</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6018385003335827</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5679889682917479</v>
+        <v>0.5670026562279908</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6342359931790229</v>
+        <v>0.6354170972073659</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>2308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6208</v>
+        <v>7698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005656559180989584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001284844694686571</v>
+        <v>0.0013181764159962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0152154498618408</v>
+        <v>0.01886835113349119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1622,19 +1622,19 @@
         <v>4085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1043</v>
+        <v>1527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11049</v>
+        <v>11564</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.009390406161918852</v>
+        <v>0.009390406161918854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002398689841770536</v>
+        <v>0.003509438114321324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02539971283248039</v>
+        <v>0.02658280829476624</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1643,19 +1643,19 @@
         <v>6393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2663</v>
+        <v>2730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13998</v>
+        <v>14269</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007583281786607856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003158625716904957</v>
+        <v>0.003238074805962523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01660467049209803</v>
+        <v>0.0169269587358791</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>4382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1460</v>
+        <v>1542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9480</v>
+        <v>10105</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01073975401587548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003578328203501348</v>
+        <v>0.003779379100980166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02323414706605159</v>
+        <v>0.02476740967051545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1693,19 +1693,19 @@
         <v>5552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2492</v>
+        <v>2537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10689</v>
+        <v>11350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01276391223527919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00572787492313425</v>
+        <v>0.005832279916630269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0245727431923815</v>
+        <v>0.02609131082453791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1714,19 +1714,19 @@
         <v>9934</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5428</v>
+        <v>5654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17562</v>
+        <v>16754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01178425086285193</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006439367566864691</v>
+        <v>0.006706787606555683</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02083308930998797</v>
+        <v>0.01987408815114204</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>165203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142178</v>
+        <v>141876</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>188233</v>
+        <v>189999</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.300737772750824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2588230017386692</v>
+        <v>0.258273098855152</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3426625031848083</v>
+        <v>0.3458775843888735</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>192</v>
@@ -1839,19 +1839,19 @@
         <v>144755</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127271</v>
+        <v>124850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>163821</v>
+        <v>163290</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2912962811409562</v>
+        <v>0.2912962811409563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2561136673032652</v>
+        <v>0.2512407061027962</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3296637941962051</v>
+        <v>0.3285949587583221</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>351</v>
@@ -1860,19 +1860,19 @@
         <v>309958</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>281059</v>
+        <v>280223</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>341306</v>
+        <v>343210</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2962534240512521</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2686324936895186</v>
+        <v>0.2678334435026393</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3262160824001073</v>
+        <v>0.3280360633111115</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>380911</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>357020</v>
+        <v>356670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>404674</v>
+        <v>404773</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6934161360382978</v>
+        <v>0.6934161360382979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6499257464812733</v>
+        <v>0.6492886443379673</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7366742074702164</v>
+        <v>0.7368559118536701</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>471</v>
@@ -1910,19 +1910,19 @@
         <v>347735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>329101</v>
+        <v>328675</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>366031</v>
+        <v>368187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6997629647231154</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6622635101638712</v>
+        <v>0.6614062193098278</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7365797036022541</v>
+        <v>0.7409185772063548</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>816</v>
@@ -1931,19 +1931,19 @@
         <v>728646</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>695654</v>
+        <v>696126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>757104</v>
+        <v>757767</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6964306377860322</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.664896916190745</v>
+        <v>0.6653484615922072</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7236305376741878</v>
+        <v>0.7242637064357907</v>
       </c>
     </row>
     <row r="21">
@@ -1963,16 +1963,16 @@
         <v>915</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8996</v>
+        <v>8888</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005846091210878119</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001665664977435138</v>
+        <v>0.001665602287922018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0163766464907041</v>
+        <v>0.0161804612188304</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1984,16 +1984,16 @@
         <v>613</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5332</v>
+        <v>5661</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.004731841717409882</v>
+        <v>0.004731841717409883</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001233268023023627</v>
+        <v>0.001234224352341594</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01073002282011493</v>
+        <v>0.01139120508678426</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -2002,19 +2002,19 @@
         <v>5563</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2232</v>
+        <v>2162</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11658</v>
+        <v>11562</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005316865165513568</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002133772871038601</v>
+        <v>0.002066356489501979</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0111421213822052</v>
+        <v>0.01105104578867535</v>
       </c>
     </row>
     <row r="22">
@@ -2044,19 +2044,19 @@
         <v>2092</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5695</v>
+        <v>5615</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004208912418518575</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0</v>
+        <v>0.001352096520532026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01146002015741235</v>
+        <v>0.01130005334603953</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2065,19 +2065,19 @@
         <v>2092</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5712</v>
+        <v>5593</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001999072997201979</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0006560268953026339</v>
+        <v>0.0006493061386153134</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005459071297189616</v>
+        <v>0.005345252542441958</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>667177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>625217</v>
+        <v>623684</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>711867</v>
+        <v>711758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4301765741339129</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4031220185620338</v>
+        <v>0.4021335964611961</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.45899128062213</v>
+        <v>0.458920856392839</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>932</v>
@@ -2190,19 +2190,19 @@
         <v>654642</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>621945</v>
+        <v>617051</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>690916</v>
+        <v>693368</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3895845646838524</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3701266569518871</v>
+        <v>0.3672143000657955</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4111716247004619</v>
+        <v>0.4126309629313461</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1586</v>
@@ -2211,19 +2211,19 @@
         <v>1321819</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1264724</v>
+        <v>1263466</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1377004</v>
+        <v>1378658</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4090676744933811</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3913983746340695</v>
+        <v>0.3910088514971209</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4261460440343109</v>
+        <v>0.4266579130315</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>834091</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>788154</v>
+        <v>784489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>874388</v>
+        <v>876160</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.537797737316545</v>
+        <v>0.5377977373165451</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5081791037419658</v>
+        <v>0.5058160945497997</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5637803164601201</v>
+        <v>0.5649229459414736</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1337</v>
@@ -2261,19 +2261,19 @@
         <v>966263</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>929820</v>
+        <v>928436</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1000772</v>
+        <v>1003945</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5750339866753085</v>
+        <v>0.5750339866753083</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5533464950155519</v>
+        <v>0.5525224627381713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5955705593513763</v>
+        <v>0.5974592805070967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2084</v>
@@ -2282,19 +2282,19 @@
         <v>1800354</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1746063</v>
+        <v>1748167</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1858086</v>
+        <v>1859388</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5571615545148774</v>
+        <v>0.5571615545148775</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5403598860490353</v>
+        <v>0.5410109965633245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.575027848097406</v>
+        <v>0.5754307228528751</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>16129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7861</v>
+        <v>8004</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30693</v>
+        <v>30852</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01039923629215459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005068398370831294</v>
+        <v>0.005160738376939435</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01978986164272986</v>
+        <v>0.01989262190017688</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -2332,19 +2332,19 @@
         <v>19575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12340</v>
+        <v>13037</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31242</v>
+        <v>32213</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01164943025597656</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007343777799892741</v>
+        <v>0.007758317979003644</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01859244979638008</v>
+        <v>0.01917004588381228</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -2353,19 +2353,19 @@
         <v>35704</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24195</v>
+        <v>24318</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52372</v>
+        <v>53647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01104936963788078</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007487698517129282</v>
+        <v>0.007525691565841366</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01620763203097481</v>
+        <v>0.01660219811286658</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>33541</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>23434</v>
+        <v>23040</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>46266</v>
+        <v>48463</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02162645225738742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01510985486022865</v>
+        <v>0.01485565977340454</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02983100890084888</v>
+        <v>0.03124750601564832</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>55</v>
@@ -2403,19 +2403,19 @@
         <v>39878</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>30084</v>
+        <v>29550</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53959</v>
+        <v>51444</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02373201838486279</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01790332116114361</v>
+        <v>0.01758529428206348</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03211168359636721</v>
+        <v>0.03061505397208827</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>89</v>
@@ -2424,19 +2424,19 @@
         <v>73420</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>59378</v>
+        <v>59944</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>92394</v>
+        <v>91587</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02272140135386076</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01837597517844753</v>
+        <v>0.01855093183177878</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02859356059240304</v>
+        <v>0.02834386118199674</v>
       </c>
     </row>
     <row r="28">
